--- a/nodejs/data/Menu_foods1.xlsx
+++ b/nodejs/data/Menu_foods1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{E8B91020-782E-42F8-967E-96AB0795ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF7F5DC-2CCB-4504-98CD-01401FBE430E}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="-21060" windowWidth="24150" windowHeight="16695" xr2:uid="{D0E14C57-F5F5-4DAD-9E58-D56B9CB59E8E}"/>
+    <workbookView xWindow="12465" yWindow="-17610" windowWidth="17280" windowHeight="8880" xr2:uid="{D0E14C57-F5F5-4DAD-9E58-D56B9CB59E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -387,6 +387,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
